--- a/grupos/2ALCM - Estadisticos 2020.xlsx
+++ b/grupos/2ALCM - Estadisticos 2020.xlsx
@@ -3677,6 +3677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4713,7 +4714,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5443,6 +5445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2ALCM - Estadisticos 2020.xlsx
+++ b/grupos/2ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -239,34 +239,61 @@
     <t>ANGEL</t>
   </si>
   <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
     <t>CAMARILLO</t>
   </si>
   <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
     <t>LASTRE</t>
   </si>
   <si>
     <t>LARRINAGA</t>
   </si>
   <si>
+    <t>LIMA</t>
+  </si>
+  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
     <t>MARIANO</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>MACARIO</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
+    <t>MENDOZA</t>
   </si>
   <si>
     <t>OLTEHUA</t>
@@ -278,15 +305,30 @@
     <t>PONCE</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -296,40 +338,61 @@
     <t>MARIA</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>SORIA</t>
   </si>
   <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
     <t>CONDE</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
     <t>GALEOTE</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
     <t>PACHECO</t>
   </si>
   <si>
     <t>SANTES</t>
   </si>
   <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>COLOHUA</t>
+    <t>CARRERA</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
+    <t>LEON</t>
   </si>
   <si>
     <t>GOMEZ</t>
@@ -338,15 +401,27 @@
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
     <t>CALIHUA</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
     <t>TEHUINTLE</t>
   </si>
   <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
     <t>FATIMA</t>
   </si>
   <si>
@@ -356,36 +431,72 @@
     <t>JOSSELIN GUADALUPE</t>
   </si>
   <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
     <t>ARIEL</t>
   </si>
   <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
     <t>JUAN ALBERTO</t>
   </si>
   <si>
     <t>JENIFER</t>
   </si>
   <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>VICTORINO</t>
+  </si>
+  <si>
     <t>GERMAN ISAI</t>
   </si>
   <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
     <t>ATENEA</t>
   </si>
   <si>
     <t>GONZALO FEDERICO</t>
   </si>
   <si>
+    <t>MERARY MADAY</t>
+  </si>
+  <si>
     <t>GENARO RAFAEL</t>
   </si>
   <si>
     <t>JAQUELINE</t>
   </si>
   <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
     <t>PERLA MARITZA</t>
   </si>
   <si>
     <t>DIEGO</t>
   </si>
   <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
     <t>LISBETH ESMERALDA</t>
   </si>
   <si>
@@ -395,154 +506,43 @@
     <t>ALETHIA LUCIA</t>
   </si>
   <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
     <t>LAILA MANE</t>
   </si>
   <si>
+    <t>FERNANDO VADHIR</t>
+  </si>
+  <si>
+    <t>CYNTHIA AIDEE</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
     <t>ANGEL EMMANUEL</t>
   </si>
   <si>
     <t>ARLET</t>
   </si>
   <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
     <t>GABRIELA</t>
   </si>
   <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>SELINA</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
     <t>JESUS URIEL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>VICTORINO</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>MERARY MADAY</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>FERNANDO VADHIR</t>
-  </si>
-  <si>
-    <t>CYNTHIA AIDEE</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>SELINA</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
   </si>
 </sst>
 </file>
@@ -1014,13 +1014,13 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1032,13 +1032,13 @@
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1091,13 +1091,13 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1132,13 +1132,13 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1150,13 +1150,13 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1209,13 +1209,13 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1250,13 +1250,13 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1268,13 +1268,13 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1327,13 +1327,13 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1386,13 +1386,13 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1445,13 +1445,13 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1504,13 +1504,13 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1545,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1563,13 +1563,13 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1622,13 +1622,13 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1681,13 +1681,13 @@
         <v>-1</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1722,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1740,13 +1740,13 @@
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1799,13 +1799,13 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L17">
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1858,13 +1858,13 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1917,13 +1917,13 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1976,13 +1976,13 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2017,13 +2017,13 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>7</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2035,13 +2035,13 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2094,13 +2094,13 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2153,13 +2153,13 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2212,13 +2212,13 @@
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2271,13 +2271,13 @@
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2330,13 +2330,13 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2371,13 +2371,13 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2389,13 +2389,13 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2430,13 +2430,13 @@
         <v>-1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>8</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2448,13 +2448,13 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2507,13 +2507,13 @@
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2548,13 +2548,13 @@
         <v>-1</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2566,13 +2566,13 @@
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>7</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -2625,13 +2625,13 @@
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2666,13 +2666,13 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -2684,13 +2684,13 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2725,13 +2725,13 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -2743,13 +2743,13 @@
         <v>-1</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L33">
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2802,7 +2802,7 @@
         <v>-1</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>-1</v>
@@ -2861,13 +2861,13 @@
         <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2920,13 +2920,13 @@
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L36">
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2979,13 +2979,13 @@
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L37">
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3020,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -3038,13 +3038,13 @@
         <v>-1</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L38">
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3097,13 +3097,13 @@
         <v>-1</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3144,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>-1</v>
@@ -3156,13 +3156,13 @@
         <v>-1</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3215,13 +3215,13 @@
         <v>-1</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L41">
         <v>-1</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>-1</v>
@@ -3274,13 +3274,13 @@
         <v>-1</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3333,13 +3333,13 @@
         <v>-1</v>
       </c>
       <c r="K43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L43">
         <v>-1</v>
       </c>
       <c r="M43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>-1</v>
@@ -3374,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -3392,13 +3392,13 @@
         <v>-1</v>
       </c>
       <c r="K44">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L44">
         <v>-1</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N44">
         <v>-1</v>
@@ -3483,25 +3483,25 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>75.61</v>
+      </c>
+      <c r="G2">
+        <v>24.39</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>58.54</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>41.46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3515,25 +3515,25 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>78.05</v>
+      </c>
+      <c r="G3">
+        <v>21.95</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>58.54</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>41.46</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3671,7 +3671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3709,16 +3709,16 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3729,56 +3729,56 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920220</v>
+        <v>20330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920220</v>
+        <v>20330051920187</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3809,50 +3809,50 @@
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920221</v>
+        <v>20330051920220</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920222</v>
+        <v>20330051920220</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -3863,156 +3863,156 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920222</v>
+        <v>20330051920221</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920222</v>
+        <v>20330051920221</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920225</v>
+        <v>20330051920221</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920375</v>
+        <v>20330051920221</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920375</v>
+        <v>20330051920374</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920228</v>
+        <v>20330051920374</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920228</v>
+        <v>20330051920374</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920233</v>
+        <v>20330051920374</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -4023,256 +4023,256 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920234</v>
+        <v>20330051920222</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920234</v>
+        <v>20330051920222</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920236</v>
+        <v>20330051920222</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920236</v>
+        <v>20330051920222</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920236</v>
+        <v>20330051920223</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920236</v>
+        <v>20330051920223</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920237</v>
+        <v>20330051920223</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920237</v>
+        <v>20330051920223</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920239</v>
+        <v>20330051920224</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920240</v>
+        <v>20330051920224</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920240</v>
+        <v>20330051920224</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920240</v>
+        <v>20330051920224</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920240</v>
+        <v>20330051920225</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -4283,316 +4283,316 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920240</v>
+        <v>20330051920225</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920243</v>
+        <v>20330051920225</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920243</v>
+        <v>20330051920225</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920243</v>
+        <v>20330051920375</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920243</v>
+        <v>20330051920375</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920244</v>
+        <v>20330051920375</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920244</v>
+        <v>20330051920375</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920244</v>
+        <v>20330051920226</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920245</v>
+        <v>20330051920226</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920245</v>
+        <v>20330051920226</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920247</v>
+        <v>20330051920226</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920247</v>
+        <v>20330051920227</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920247</v>
+        <v>20330051920227</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920247</v>
+        <v>20330051920227</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920251</v>
+        <v>20330051920227</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920251</v>
+        <v>20330051920228</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -4603,56 +4603,56 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920252</v>
+        <v>20330051920228</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920252</v>
+        <v>20330051920228</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920255</v>
+        <v>20330051920228</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -4663,42 +4663,2342 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920255</v>
+        <v>20330051920229</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
+        <v>20330051920229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920230</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920230</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920231</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920231</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920231</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920233</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920233</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920234</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920376</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920376</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920236</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920236</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920237</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920237</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920237</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920238</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920238</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920238</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920239</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920239</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920239</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920240</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920240</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920240</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920241</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920241</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920241</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920243</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920243</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920243</v>
+      </c>
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920243</v>
+      </c>
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920244</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920244</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920244</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920244</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920245</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920245</v>
+      </c>
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920245</v>
+      </c>
+      <c r="B112" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920245</v>
+      </c>
+      <c r="B113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920246</v>
+      </c>
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920246</v>
+      </c>
+      <c r="B115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920246</v>
+      </c>
+      <c r="B116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920246</v>
+      </c>
+      <c r="B117" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" t="s">
+        <v>162</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920247</v>
+      </c>
+      <c r="B119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920247</v>
+      </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920247</v>
+      </c>
+      <c r="B121" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920248</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920248</v>
+      </c>
+      <c r="B124" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920249</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920249</v>
+      </c>
+      <c r="B130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" t="s">
+        <v>121</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920250</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920250</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920250</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>121</v>
+      </c>
+      <c r="D134" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920251</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920251</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920251</v>
+      </c>
+      <c r="B138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920252</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920252</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920252</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920253</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" t="s">
+        <v>169</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920253</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920253</v>
+      </c>
+      <c r="B146" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>130</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920255</v>
+      </c>
+      <c r="B147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" t="s">
+        <v>170</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920255</v>
+      </c>
+      <c r="B149" t="s">
+        <v>100</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920255</v>
+      </c>
+      <c r="B150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920256</v>
+      </c>
+      <c r="B151" t="s">
+        <v>101</v>
+      </c>
+      <c r="C151" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920256</v>
+      </c>
+      <c r="B152" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920256</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>20330051920257</v>
+      </c>
+      <c r="B155" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" t="s">
+        <v>172</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" t="s">
+        <v>133</v>
+      </c>
+      <c r="D156" t="s">
+        <v>172</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920257</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" t="s">
+        <v>172</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" t="s">
+        <v>172</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920258</v>
+      </c>
+      <c r="B159" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" t="s">
+        <v>103</v>
+      </c>
+      <c r="D159" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920258</v>
+      </c>
+      <c r="B160" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" t="s">
+        <v>173</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920258</v>
+      </c>
+      <c r="B161" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" t="s">
+        <v>173</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>20330051920258</v>
+      </c>
+      <c r="B162" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
         <v>20330051920259</v>
       </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>61</v>
+      <c r="B163" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>20330051920259</v>
+      </c>
+      <c r="B164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" t="s">
+        <v>174</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>20330051920259</v>
+      </c>
+      <c r="B165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" t="s">
+        <v>174</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>20330051920259</v>
+      </c>
+      <c r="B166" t="s">
+        <v>103</v>
+      </c>
+      <c r="C166" t="s">
+        <v>103</v>
+      </c>
+      <c r="D166" t="s">
+        <v>174</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4740,16 +7040,16 @@
         <v>20330051920240</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4760,13 +7060,13 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4774,16 +7074,16 @@
         <v>20330051920236</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4791,16 +7091,16 @@
         <v>20330051920243</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4808,16 +7108,16 @@
         <v>20330051920247</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4825,285 +7125,285 @@
         <v>20330051920222</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920244</v>
+        <v>20330051920233</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920187</v>
+        <v>20330051920244</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920375</v>
+        <v>20330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920228</v>
+        <v>20330051920255</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920234</v>
+        <v>20330051920187</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920237</v>
+        <v>20330051920221</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920245</v>
+        <v>20330051920374</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920251</v>
+        <v>20330051920223</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920252</v>
+        <v>20330051920224</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920255</v>
+        <v>20330051920225</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920221</v>
+        <v>20330051920375</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920225</v>
+        <v>20330051920226</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920233</v>
+        <v>20330051920227</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920239</v>
+        <v>20330051920228</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920259</v>
+        <v>20330051920229</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920374</v>
+        <v>20330051920230</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5111,16 +7411,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920223</v>
+        <v>20330051920231</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5128,16 +7428,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920224</v>
+        <v>20330051920232</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5145,16 +7445,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920226</v>
+        <v>20330051920234</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5162,16 +7462,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920227</v>
+        <v>20330051920376</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5179,16 +7479,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920229</v>
+        <v>20330051920237</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5196,16 +7496,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920230</v>
+        <v>20330051920238</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5213,16 +7513,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920231</v>
+        <v>20330051920239</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5230,16 +7530,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920232</v>
+        <v>20330051920241</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5247,16 +7547,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920376</v>
+        <v>20330051920245</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5264,16 +7564,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920238</v>
+        <v>20330051920246</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5281,16 +7581,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920241</v>
+        <v>20330051920248</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5298,16 +7598,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920246</v>
+        <v>20330051920249</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5315,16 +7615,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920248</v>
+        <v>20330051920250</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5332,16 +7632,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920249</v>
+        <v>20330051920252</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5349,16 +7649,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920250</v>
+        <v>20330051920253</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5366,13 +7666,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920253</v>
+        <v>20330051920256</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>171</v>
@@ -5383,13 +7683,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20330051920256</v>
+        <v>20330051920257</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
         <v>172</v>
@@ -5400,13 +7700,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20330051920257</v>
+        <v>20330051920258</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>173</v>
@@ -5417,13 +7717,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20330051920258</v>
+        <v>20330051920259</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
         <v>174</v>
@@ -5439,7 +7739,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5472,535 +7772,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920187</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920375</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920228</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920245</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920251</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920251</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920252</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920252</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920255</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920221</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920233</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920239</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920259</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2ALCM - Estadisticos 2020.xlsx
+++ b/grupos/2ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -203,16 +203,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Caballero Rosas María Teresa</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
@@ -1023,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1082,13 +1082,13 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1141,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1200,10 +1200,10 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1318,10 +1318,10 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1377,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1436,13 +1436,13 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -1495,10 +1495,10 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1554,13 +1554,13 @@
         <v>6</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1613,13 +1613,13 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -1672,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1731,13 +1731,13 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1790,13 +1790,13 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -1849,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -1908,13 +1908,13 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -1967,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -2026,13 +2026,13 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2085,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2144,13 +2144,13 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2203,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2262,13 +2262,13 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2321,10 +2321,10 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2362,7 +2362,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2383,7 +2383,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2421,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2442,7 +2442,7 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2498,13 +2498,13 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -2539,7 +2539,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2557,10 +2557,10 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>-1</v>
@@ -2619,7 +2619,7 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>-1</v>
@@ -2675,13 +2675,13 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -2716,7 +2716,7 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2737,10 +2737,10 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2796,7 +2796,7 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
         <v>-1</v>
@@ -2852,13 +2852,13 @@
         <v>10</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -2911,13 +2911,13 @@
         <v>7</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -2970,13 +2970,13 @@
         <v>8</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3029,10 +3029,10 @@
         <v>6</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3088,13 +3088,13 @@
         <v>6</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>-1</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -3206,13 +3206,13 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -3265,13 +3265,13 @@
         <v>10</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -3324,13 +3324,13 @@
         <v>10</v>
       </c>
       <c r="H43">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -3383,10 +3383,10 @@
         <v>6</v>
       </c>
       <c r="H44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <v>-1</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -3483,126 +3483,123 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>75.61</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>24.39</v>
-      </c>
-      <c r="H2">
-        <v>6.9</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>78.05</v>
+        <v>63.41</v>
       </c>
       <c r="G3">
-        <v>21.95</v>
+        <v>17.07</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>36.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>80.48999999999999</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.07</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>19.51</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>87.8</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>17.07</v>
       </c>
       <c r="H5">
         <v>7.5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3611,25 +3608,25 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>92.68000000000001</v>
+        <v>85.37</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.32</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3643,19 +3640,19 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>92.68000000000001</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="G7">
-        <v>7.32</v>
+        <v>9.76</v>
       </c>
       <c r="H7">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3671,7 +3668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3715,144 +3712,144 @@
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920187</v>
+        <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920187</v>
+        <v>20330051920220</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920187</v>
+        <v>20330051920221</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920220</v>
+        <v>20330051920374</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920220</v>
+        <v>20330051920374</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920220</v>
+        <v>20330051920222</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920220</v>
+        <v>20330051920222</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -3863,576 +3860,576 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920221</v>
+        <v>20330051920222</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920221</v>
+        <v>20330051920223</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920221</v>
+        <v>20330051920223</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920221</v>
+        <v>20330051920224</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920374</v>
+        <v>20330051920225</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920374</v>
+        <v>20330051920375</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920374</v>
+        <v>20330051920226</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920374</v>
+        <v>20330051920227</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920222</v>
+        <v>20330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920222</v>
+        <v>20330051920229</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920222</v>
+        <v>20330051920230</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920222</v>
+        <v>20330051920231</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920223</v>
+        <v>20330051920232</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920223</v>
+        <v>20330051920233</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920223</v>
+        <v>20330051920233</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920223</v>
+        <v>20330051920234</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920224</v>
+        <v>20330051920376</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920224</v>
+        <v>20330051920236</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920224</v>
+        <v>20330051920236</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920224</v>
+        <v>20330051920236</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920225</v>
+        <v>20330051920237</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920225</v>
+        <v>20330051920238</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920225</v>
+        <v>20330051920238</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920225</v>
+        <v>20330051920239</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920375</v>
+        <v>20330051920240</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920375</v>
+        <v>20330051920240</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920375</v>
+        <v>20330051920240</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920375</v>
+        <v>20330051920241</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920226</v>
+        <v>20330051920243</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -4443,159 +4440,159 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920226</v>
+        <v>20330051920243</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920226</v>
+        <v>20330051920244</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920226</v>
+        <v>20330051920244</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920227</v>
+        <v>20330051920244</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920227</v>
+        <v>20330051920245</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920227</v>
+        <v>20330051920246</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920227</v>
+        <v>20330051920246</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920228</v>
+        <v>20330051920246</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>64</v>
@@ -4603,176 +4600,176 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920228</v>
+        <v>20330051920246</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920228</v>
+        <v>20330051920247</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920228</v>
+        <v>20330051920247</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920229</v>
+        <v>20330051920248</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920229</v>
+        <v>20330051920249</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920229</v>
+        <v>20330051920250</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920229</v>
+        <v>20330051920251</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920230</v>
+        <v>20330051920251</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920230</v>
+        <v>20330051920252</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -4783,2222 +4780,202 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920230</v>
+        <v>20330051920252</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920230</v>
+        <v>20330051920253</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920231</v>
+        <v>20330051920255</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920231</v>
+        <v>20330051920255</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920231</v>
+        <v>20330051920255</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920231</v>
+        <v>20330051920256</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920232</v>
+        <v>20330051920257</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920232</v>
+        <v>20330051920258</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920232</v>
+        <v>20330051920259</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920232</v>
+        <v>20330051920259</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920233</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920233</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920233</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920233</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920234</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920234</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920234</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920234</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920376</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920376</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920376</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920236</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920236</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920236</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920236</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920237</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920237</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920237</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920238</v>
-      </c>
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920238</v>
-      </c>
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920238</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920238</v>
-      </c>
-      <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920239</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920239</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920239</v>
-      </c>
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920239</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920240</v>
-      </c>
-      <c r="B94" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" t="s">
-        <v>123</v>
-      </c>
-      <c r="D94" t="s">
-        <v>157</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920240</v>
-      </c>
-      <c r="B95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920240</v>
-      </c>
-      <c r="B96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920240</v>
-      </c>
-      <c r="B97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920241</v>
-      </c>
-      <c r="B98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" t="s">
-        <v>158</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920241</v>
-      </c>
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>124</v>
-      </c>
-      <c r="D99" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920241</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" t="s">
-        <v>158</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920241</v>
-      </c>
-      <c r="B101" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" t="s">
-        <v>124</v>
-      </c>
-      <c r="D101" t="s">
-        <v>158</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920243</v>
-      </c>
-      <c r="B102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920243</v>
-      </c>
-      <c r="B103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920243</v>
-      </c>
-      <c r="B104" t="s">
-        <v>92</v>
-      </c>
-      <c r="C104" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" t="s">
-        <v>159</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920243</v>
-      </c>
-      <c r="B105" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" t="s">
-        <v>159</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920244</v>
-      </c>
-      <c r="B106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D106" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920244</v>
-      </c>
-      <c r="B107" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920244</v>
-      </c>
-      <c r="B108" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920244</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" t="s">
-        <v>160</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920245</v>
-      </c>
-      <c r="B110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" t="s">
-        <v>161</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920245</v>
-      </c>
-      <c r="B111" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920245</v>
-      </c>
-      <c r="B112" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920245</v>
-      </c>
-      <c r="B113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920246</v>
-      </c>
-      <c r="B114" t="s">
-        <v>95</v>
-      </c>
-      <c r="C114" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" t="s">
-        <v>162</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920246</v>
-      </c>
-      <c r="B115" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920246</v>
-      </c>
-      <c r="B116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920246</v>
-      </c>
-      <c r="B117" t="s">
-        <v>95</v>
-      </c>
-      <c r="C117" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E117" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920246</v>
-      </c>
-      <c r="B118" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920247</v>
-      </c>
-      <c r="B119" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920247</v>
-      </c>
-      <c r="B120" t="s">
-        <v>96</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920247</v>
-      </c>
-      <c r="B121" t="s">
-        <v>96</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>163</v>
-      </c>
-      <c r="E121" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920247</v>
-      </c>
-      <c r="B122" t="s">
-        <v>96</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" t="s">
-        <v>163</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920248</v>
-      </c>
-      <c r="B123" t="s">
-        <v>97</v>
-      </c>
-      <c r="C123" t="s">
-        <v>82</v>
-      </c>
-      <c r="D123" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920248</v>
-      </c>
-      <c r="B124" t="s">
-        <v>97</v>
-      </c>
-      <c r="C124" t="s">
-        <v>82</v>
-      </c>
-      <c r="D124" t="s">
-        <v>164</v>
-      </c>
-      <c r="E124" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920248</v>
-      </c>
-      <c r="B125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" t="s">
-        <v>82</v>
-      </c>
-      <c r="D125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920248</v>
-      </c>
-      <c r="B126" t="s">
-        <v>97</v>
-      </c>
-      <c r="C126" t="s">
-        <v>82</v>
-      </c>
-      <c r="D126" t="s">
-        <v>164</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920249</v>
-      </c>
-      <c r="B127" t="s">
-        <v>97</v>
-      </c>
-      <c r="C127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920249</v>
-      </c>
-      <c r="B128" t="s">
-        <v>97</v>
-      </c>
-      <c r="C128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920249</v>
-      </c>
-      <c r="B129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C129" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" t="s">
-        <v>165</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920249</v>
-      </c>
-      <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920250</v>
-      </c>
-      <c r="B131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" t="s">
-        <v>121</v>
-      </c>
-      <c r="D131" t="s">
-        <v>166</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920250</v>
-      </c>
-      <c r="B132" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" t="s">
-        <v>121</v>
-      </c>
-      <c r="D132" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920250</v>
-      </c>
-      <c r="B133" t="s">
-        <v>98</v>
-      </c>
-      <c r="C133" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" t="s">
-        <v>166</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920250</v>
-      </c>
-      <c r="B134" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" t="s">
-        <v>121</v>
-      </c>
-      <c r="D134" t="s">
-        <v>166</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920251</v>
-      </c>
-      <c r="B135" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" t="s">
-        <v>128</v>
-      </c>
-      <c r="D135" t="s">
-        <v>167</v>
-      </c>
-      <c r="E135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920251</v>
-      </c>
-      <c r="B136" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" t="s">
-        <v>128</v>
-      </c>
-      <c r="D136" t="s">
-        <v>167</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920251</v>
-      </c>
-      <c r="B137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920251</v>
-      </c>
-      <c r="B138" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" t="s">
-        <v>167</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920252</v>
-      </c>
-      <c r="B139" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920252</v>
-      </c>
-      <c r="B140" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" t="s">
-        <v>129</v>
-      </c>
-      <c r="D140" t="s">
-        <v>168</v>
-      </c>
-      <c r="E140" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920252</v>
-      </c>
-      <c r="B141" t="s">
-        <v>100</v>
-      </c>
-      <c r="C141" t="s">
-        <v>129</v>
-      </c>
-      <c r="D141" t="s">
-        <v>168</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920252</v>
-      </c>
-      <c r="B142" t="s">
-        <v>100</v>
-      </c>
-      <c r="C142" t="s">
-        <v>129</v>
-      </c>
-      <c r="D142" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920253</v>
-      </c>
-      <c r="B143" t="s">
-        <v>100</v>
-      </c>
-      <c r="C143" t="s">
-        <v>130</v>
-      </c>
-      <c r="D143" t="s">
-        <v>169</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920253</v>
-      </c>
-      <c r="B144" t="s">
-        <v>100</v>
-      </c>
-      <c r="C144" t="s">
-        <v>130</v>
-      </c>
-      <c r="D144" t="s">
-        <v>169</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920253</v>
-      </c>
-      <c r="B145" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145" t="s">
-        <v>130</v>
-      </c>
-      <c r="D145" t="s">
-        <v>169</v>
-      </c>
-      <c r="E145" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920253</v>
-      </c>
-      <c r="B146" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146" t="s">
-        <v>130</v>
-      </c>
-      <c r="D146" t="s">
-        <v>169</v>
-      </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920255</v>
-      </c>
-      <c r="B147" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" t="s">
-        <v>170</v>
-      </c>
-      <c r="E147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920255</v>
-      </c>
-      <c r="B148" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148" t="s">
-        <v>170</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920255</v>
-      </c>
-      <c r="B149" t="s">
-        <v>100</v>
-      </c>
-      <c r="C149" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" t="s">
-        <v>170</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920255</v>
-      </c>
-      <c r="B150" t="s">
-        <v>100</v>
-      </c>
-      <c r="C150" t="s">
-        <v>131</v>
-      </c>
-      <c r="D150" t="s">
-        <v>170</v>
-      </c>
-      <c r="E150" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920256</v>
-      </c>
-      <c r="B151" t="s">
-        <v>101</v>
-      </c>
-      <c r="C151" t="s">
-        <v>132</v>
-      </c>
-      <c r="D151" t="s">
-        <v>171</v>
-      </c>
-      <c r="E151" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920256</v>
-      </c>
-      <c r="B152" t="s">
-        <v>101</v>
-      </c>
-      <c r="C152" t="s">
-        <v>132</v>
-      </c>
-      <c r="D152" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920256</v>
-      </c>
-      <c r="B153" t="s">
-        <v>101</v>
-      </c>
-      <c r="C153" t="s">
-        <v>132</v>
-      </c>
-      <c r="D153" t="s">
-        <v>171</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920256</v>
-      </c>
-      <c r="B154" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154" t="s">
-        <v>132</v>
-      </c>
-      <c r="D154" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920257</v>
-      </c>
-      <c r="B155" t="s">
-        <v>102</v>
-      </c>
-      <c r="C155" t="s">
-        <v>133</v>
-      </c>
-      <c r="D155" t="s">
-        <v>172</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920257</v>
-      </c>
-      <c r="B156" t="s">
-        <v>102</v>
-      </c>
-      <c r="C156" t="s">
-        <v>133</v>
-      </c>
-      <c r="D156" t="s">
-        <v>172</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920257</v>
-      </c>
-      <c r="B157" t="s">
-        <v>102</v>
-      </c>
-      <c r="C157" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" t="s">
-        <v>172</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920257</v>
-      </c>
-      <c r="B158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158" t="s">
-        <v>133</v>
-      </c>
-      <c r="D158" t="s">
-        <v>172</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920258</v>
-      </c>
-      <c r="B159" t="s">
-        <v>103</v>
-      </c>
-      <c r="C159" t="s">
-        <v>103</v>
-      </c>
-      <c r="D159" t="s">
-        <v>173</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920258</v>
-      </c>
-      <c r="B160" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" t="s">
-        <v>103</v>
-      </c>
-      <c r="D160" t="s">
-        <v>173</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920258</v>
-      </c>
-      <c r="B161" t="s">
-        <v>103</v>
-      </c>
-      <c r="C161" t="s">
-        <v>103</v>
-      </c>
-      <c r="D161" t="s">
-        <v>173</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920258</v>
-      </c>
-      <c r="B162" t="s">
-        <v>103</v>
-      </c>
-      <c r="C162" t="s">
-        <v>103</v>
-      </c>
-      <c r="D162" t="s">
-        <v>173</v>
-      </c>
-      <c r="E162" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920259</v>
-      </c>
-      <c r="B163" t="s">
-        <v>103</v>
-      </c>
-      <c r="C163" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" t="s">
-        <v>174</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920259</v>
-      </c>
-      <c r="B164" t="s">
-        <v>103</v>
-      </c>
-      <c r="C164" t="s">
-        <v>103</v>
-      </c>
-      <c r="D164" t="s">
-        <v>174</v>
-      </c>
-      <c r="E164" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920259</v>
-      </c>
-      <c r="B165" t="s">
-        <v>103</v>
-      </c>
-      <c r="C165" t="s">
-        <v>103</v>
-      </c>
-      <c r="D165" t="s">
-        <v>174</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920259</v>
-      </c>
-      <c r="B166" t="s">
-        <v>103</v>
-      </c>
-      <c r="C166" t="s">
-        <v>103</v>
-      </c>
-      <c r="D166" t="s">
-        <v>174</v>
-      </c>
-      <c r="E166" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7037,36 +5014,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920240</v>
+        <v>20330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920220</v>
+        <v>20330051920222</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7083,641 +5060,641 @@
         <v>153</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920243</v>
+        <v>20330051920240</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920247</v>
+        <v>20330051920244</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920222</v>
+        <v>20330051920255</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920233</v>
+        <v>20330051920220</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920244</v>
+        <v>20330051920374</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920251</v>
+        <v>20330051920223</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920255</v>
+        <v>20330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920187</v>
+        <v>20330051920238</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920221</v>
+        <v>20330051920243</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920374</v>
+        <v>20330051920247</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920223</v>
+        <v>20330051920251</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920224</v>
+        <v>20330051920252</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920225</v>
+        <v>20330051920259</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920375</v>
+        <v>20330051920187</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920226</v>
+        <v>20330051920221</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920227</v>
+        <v>20330051920224</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920228</v>
+        <v>20330051920225</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920229</v>
+        <v>20330051920375</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920230</v>
+        <v>20330051920226</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920231</v>
+        <v>20330051920227</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920232</v>
+        <v>20330051920228</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920234</v>
+        <v>20330051920229</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920376</v>
+        <v>20330051920230</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920237</v>
+        <v>20330051920231</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920238</v>
+        <v>20330051920232</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920239</v>
+        <v>20330051920234</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920241</v>
+        <v>20330051920376</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920245</v>
+        <v>20330051920237</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920246</v>
+        <v>20330051920239</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920248</v>
+        <v>20330051920241</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920249</v>
+        <v>20330051920245</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920250</v>
+        <v>20330051920248</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920252</v>
+        <v>20330051920249</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920253</v>
+        <v>20330051920250</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920256</v>
+        <v>20330051920253</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20330051920257</v>
+        <v>20330051920256</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20330051920258</v>
+        <v>20330051920257</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20330051920259</v>
+        <v>20330051920258</v>
       </c>
       <c r="B42" t="s">
         <v>103</v>
@@ -7726,10 +5703,10 @@
         <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7739,7 +5716,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7769,7 +5746,881 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920221</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920375</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>20330051920234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>20330051920376</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>20330051920239</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>20330051920241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>20330051920245</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>20330051920248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>20330051920249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>20330051920250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>20330051920253</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>20330051920256</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>20330051920257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>20330051920258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2ALCM - Estadisticos 2020.xlsx
+++ b/grupos/2ALCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -203,12 +203,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
@@ -230,24 +230,144 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>CAMARILLO</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>SORIA</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>VANELY JUDITH</t>
+  </si>
+  <si>
+    <t>JOSE ISAIAS</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>GENARO RAFAEL</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>LISBETH ESMERALDA</t>
+  </si>
+  <si>
+    <t>VICTOR GAMALIEL</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>LAILA MANE</t>
+  </si>
+  <si>
+    <t>ANGEL EMMANUEL</t>
+  </si>
+  <si>
+    <t>ARLET</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>JESUS URIEL</t>
+  </si>
+  <si>
     <t>ALVARADO</t>
   </si>
   <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CAMARILLO</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
@@ -257,96 +377,51 @@
     <t>FLORES</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>HUERTA</t>
   </si>
   <si>
     <t>JUSTO</t>
   </si>
   <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
     <t>LARRINAGA</t>
   </si>
   <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
     <t>MARIANO</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MACARIO</t>
   </si>
   <si>
     <t>MENDOZA</t>
   </si>
   <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
     <t>PONCE</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TLECUILE</t>
   </si>
   <si>
     <t>VARGAS</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>CIRUELO</t>
   </si>
   <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>SORIA</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
     <t>CONDE</t>
   </si>
   <si>
@@ -368,54 +443,27 @@
     <t>ENRIQUEZ</t>
   </si>
   <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
     <t>SANTES</t>
   </si>
   <si>
     <t>MARINERO</t>
   </si>
   <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>QUIAHUA</t>
   </si>
   <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
     <t>VALLEJO</t>
   </si>
   <si>
@@ -425,21 +473,9 @@
     <t>FATIMA</t>
   </si>
   <si>
-    <t>VANELY JUDITH</t>
-  </si>
-  <si>
     <t>JOSSELIN GUADALUPE</t>
   </si>
   <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
     <t>FERNANDA</t>
   </si>
   <si>
@@ -470,48 +506,24 @@
     <t>EVELYN</t>
   </si>
   <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
     <t>GONZALO FEDERICO</t>
   </si>
   <si>
     <t>MERARY MADAY</t>
   </si>
   <si>
-    <t>GENARO RAFAEL</t>
-  </si>
-  <si>
     <t>JAQUELINE</t>
   </si>
   <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
     <t>PERLA MARITZA</t>
   </si>
   <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
     <t>ITZEL</t>
   </si>
   <si>
-    <t>LISBETH ESMERALDA</t>
-  </si>
-  <si>
-    <t>VICTOR GAMALIEL</t>
-  </si>
-  <si>
     <t>ALETHIA LUCIA</t>
   </si>
   <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>LAILA MANE</t>
-  </si>
-  <si>
     <t>FERNANDO VADHIR</t>
   </si>
   <si>
@@ -521,18 +533,9 @@
     <t>FABIOLA</t>
   </si>
   <si>
-    <t>ANGEL EMMANUEL</t>
-  </si>
-  <si>
-    <t>ARLET</t>
-  </si>
-  <si>
     <t>ROSARIO</t>
   </si>
   <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
     <t>SAUL</t>
   </si>
   <si>
@@ -540,9 +543,6 @@
   </si>
   <si>
     <t>ERIKA</t>
-  </si>
-  <si>
-    <t>JESUS URIEL</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1212,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -1389,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1566,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -1625,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1743,7 +1743,7 @@
         <v>6</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -2097,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>9</v>
@@ -2156,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -2215,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2274,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M26">
         <v>10</v>
@@ -2451,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
         <v>10</v>
@@ -2569,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -2687,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -2805,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2864,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M35">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -2982,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M37">
         <v>9</v>
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <v>8</v>
@@ -3100,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>10</v>
@@ -3218,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M41">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <v>10</v>
@@ -3336,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="L43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M43">
         <v>10</v>
@@ -3395,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="L44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M44">
         <v>10</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -3483,27 +3483,30 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>63.41</v>
       </c>
       <c r="G2">
-        <v>92.68000000000001</v>
+        <v>17.07</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>36.59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -3512,25 +3515,25 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>63.41</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="G3">
+        <v>9.76</v>
+      </c>
+      <c r="H3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
         <v>17.07</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>36.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3668,7 +3671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3700,19 +3703,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920187</v>
+        <v>20330051920220</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -3723,16 +3726,16 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3740,19 +3743,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920220</v>
+        <v>20330051920374</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3760,39 +3763,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920221</v>
+        <v>20330051920222</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920374</v>
+        <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -3800,19 +3803,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920374</v>
+        <v>20330051920222</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -3820,99 +3823,99 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920222</v>
+        <v>20330051920223</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920222</v>
+        <v>20330051920233</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920222</v>
+        <v>20330051920236</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920223</v>
+        <v>20330051920236</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920223</v>
+        <v>20330051920238</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
@@ -3920,39 +3923,39 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920224</v>
+        <v>20330051920240</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920225</v>
+        <v>20330051920240</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>61</v>
@@ -3960,39 +3963,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920375</v>
+        <v>20330051920240</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920226</v>
+        <v>20330051920243</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>61</v>
@@ -4000,19 +4003,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920227</v>
+        <v>20330051920244</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
@@ -4020,99 +4023,99 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920228</v>
+        <v>20330051920244</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920229</v>
+        <v>20330051920244</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920230</v>
+        <v>20330051920246</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920231</v>
+        <v>20330051920246</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920232</v>
+        <v>20330051920246</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>61</v>
@@ -4120,79 +4123,79 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920233</v>
+        <v>20330051920247</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920233</v>
+        <v>20330051920247</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920234</v>
+        <v>20330051920251</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920376</v>
+        <v>20330051920251</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
@@ -4200,782 +4203,102 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920236</v>
+        <v>20330051920252</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920236</v>
+        <v>20330051920255</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920236</v>
+        <v>20330051920255</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920237</v>
+        <v>20330051920255</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920238</v>
+        <v>20330051920259</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920238</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920239</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920240</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920240</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920240</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920241</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920243</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920243</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920244</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920244</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920245</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920246</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920246</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920246</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920246</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920247</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920247</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920248</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920249</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920251</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920251</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920252</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920252</v>
-      </c>
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920253</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920255</v>
-      </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920255</v>
-      </c>
-      <c r="B59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920255</v>
-      </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920256</v>
-      </c>
-      <c r="B61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920257</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920258</v>
-      </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920259</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920259</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5014,33 +4337,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920246</v>
+        <v>20330051920222</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920222</v>
+        <v>20330051920240</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -5048,16 +4371,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920236</v>
+        <v>20330051920244</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5065,16 +4388,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920240</v>
+        <v>20330051920246</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -5082,16 +4405,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920244</v>
+        <v>20330051920255</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5099,33 +4422,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920255</v>
+        <v>20330051920220</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920220</v>
+        <v>20330051920236</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -5133,16 +4456,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920374</v>
+        <v>20330051920247</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -5150,16 +4473,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920223</v>
+        <v>20330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5167,87 +4490,87 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920233</v>
+        <v>20330051920374</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920238</v>
+        <v>20330051920223</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920243</v>
+        <v>20330051920233</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920247</v>
+        <v>20330051920238</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920251</v>
+        <v>20330051920243</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5255,16 +4578,16 @@
         <v>20330051920252</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5272,16 +4595,16 @@
         <v>20330051920259</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5289,16 +4612,16 @@
         <v>20330051920187</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5306,16 +4629,16 @@
         <v>20330051920221</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5323,16 +4646,16 @@
         <v>20330051920224</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5340,16 +4663,16 @@
         <v>20330051920225</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5357,16 +4680,16 @@
         <v>20330051920375</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5374,16 +4697,16 @@
         <v>20330051920226</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5391,16 +4714,16 @@
         <v>20330051920227</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5408,16 +4731,16 @@
         <v>20330051920228</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5425,16 +4748,16 @@
         <v>20330051920229</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5442,16 +4765,16 @@
         <v>20330051920230</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5459,16 +4782,16 @@
         <v>20330051920231</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5476,16 +4799,16 @@
         <v>20330051920232</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5493,16 +4816,16 @@
         <v>20330051920234</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5510,16 +4833,16 @@
         <v>20330051920376</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5527,16 +4850,16 @@
         <v>20330051920237</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5544,16 +4867,16 @@
         <v>20330051920239</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5561,16 +4884,16 @@
         <v>20330051920241</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5578,16 +4901,16 @@
         <v>20330051920245</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5595,16 +4918,16 @@
         <v>20330051920248</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5612,16 +4935,16 @@
         <v>20330051920249</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5629,16 +4952,16 @@
         <v>20330051920250</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5646,16 +4969,16 @@
         <v>20330051920253</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5663,16 +4986,16 @@
         <v>20330051920256</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5680,16 +5003,16 @@
         <v>20330051920257</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5697,16 +5020,16 @@
         <v>20330051920258</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5716,7 +5039,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5754,19 +5077,19 @@
         <v>20330051920374</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5774,19 +5097,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920374</v>
+        <v>20330051920223</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -5797,22 +5120,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920223</v>
+        <v>20330051920233</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5820,45 +5143,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920223</v>
+        <v>20330051920237</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920233</v>
+        <v>20330051920238</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5866,19 +5189,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920233</v>
+        <v>20330051920252</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
@@ -5889,737 +5212,24 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920237</v>
+        <v>20330051920259</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920238</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920238</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920252</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920252</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920259</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920187</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920221</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920375</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920227</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920228</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920230</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920232</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920234</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920376</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>20330051920239</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>20330051920241</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>20330051920245</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>20330051920248</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>20330051920249</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>20330051920250</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>20330051920253</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>20330051920256</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>20330051920257</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>20330051920258</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39">
         <v>-1</v>
       </c>
     </row>
